--- a/IPC Excel.xlsx
+++ b/IPC Excel.xlsx
@@ -1,18 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\GitHub\HCI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA7E52-C966-46B8-AD8C-201864EA5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Answers" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Analysis" sheetId="2" r:id="rId5"/>
+    <sheet name="Answers" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="142">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -435,48 +457,54 @@
   </si>
   <si>
     <t>Found in personal network</t>
+  </si>
+  <si>
+    <t>No alternative to current arrangement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Lexend"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Lexend"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lexend"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -484,9 +512,21 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -500,54 +540,148 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -737,26 +871,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="51" width="18.88"/>
+    <col min="1" max="51" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +1030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44835.457706608795</v>
       </c>
@@ -901,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>41</v>
@@ -919,15 +1056,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:45" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>44835.45904577547</v>
+        <v>44835.459045775468</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -945,15 +1082,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>44835.46943758102</v>
+        <v>44835.469437581021</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>
@@ -1013,7 +1150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44835.481780497685</v>
       </c>
@@ -1021,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>41</v>
@@ -1081,15 +1218,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>44835.48959456019</v>
+        <v>44835.489594560189</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
@@ -1107,15 +1244,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1">
       <c r="A7" s="2">
-        <v>44835.48987559028</v>
+        <v>44835.489875590283</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>41</v>
@@ -1175,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44835.496041446764</v>
       </c>
@@ -1183,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>41</v>
@@ -1243,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>44835.510488217595</v>
       </c>
@@ -1251,7 +1388,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>41</v>
@@ -1311,7 +1448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44835.514912604165</v>
       </c>
@@ -1319,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -1337,15 +1474,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>44835.51549942129</v>
+        <v>44835.515499421293</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>68</v>
@@ -1372,10 +1509,10 @@
         <v>71</v>
       </c>
       <c r="AB11" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AC11" s="3">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>72</v>
@@ -1411,7 +1548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44835.5194671875</v>
       </c>
@@ -1419,7 +1556,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -1482,15 +1619,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>44835.5284279051</v>
+        <v>44835.528427905097</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -1601,15 +1738,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1">
       <c r="A14" s="2">
-        <v>44835.54862412037</v>
+        <v>44835.548624120369</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -1627,15 +1764,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1">
       <c r="A15" s="2">
-        <v>44835.59176759259</v>
+        <v>44835.591767592588</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>41</v>
@@ -1695,15 +1832,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1">
       <c r="A16" s="2">
-        <v>44835.68322760417</v>
+        <v>44835.683227604168</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>41</v>
@@ -1766,7 +1903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44836.580456261574</v>
       </c>
@@ -1774,7 +1911,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>41</v>
@@ -1792,15 +1929,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>44836.94064027778</v>
+        <v>44836.940640277782</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>41</v>
@@ -1827,15 +1964,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>44837.55779482639</v>
+        <v>44837.557794826389</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>41</v>
@@ -1859,15 +1996,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>44837.68504015046</v>
+        <v>44837.685040150463</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>41</v>
@@ -1927,15 +2064,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" ht="13">
       <c r="A21" s="2">
-        <v>44837.99791130787</v>
+        <v>44837.997911307873</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>98</v>
@@ -1962,7 +2099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" ht="13">
       <c r="A22" s="2">
         <v>44838.583561238425</v>
       </c>
@@ -1970,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>41</v>
@@ -1988,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" ht="13">
       <c r="A23" s="2">
         <v>44839.7592099537</v>
       </c>
@@ -1996,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>41</v>
@@ -2023,10 +2160,10 @@
         <v>71</v>
       </c>
       <c r="AB23" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AC23" s="3">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>104</v>
@@ -2062,7 +2199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" ht="13">
       <c r="A24" s="2">
         <v>44841.265247442134</v>
       </c>
@@ -2070,7 +2207,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>41</v>
@@ -2097,10 +2234,10 @@
         <v>71</v>
       </c>
       <c r="AB24" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AC24" s="3">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>111</v>
@@ -2137,27 +2274,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="14.13"/>
-    <col customWidth="1" min="6" max="6" width="15.63"/>
-    <col customWidth="1" min="8" max="8" width="15.38"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2174,7 +2314,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2189,7 +2329,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>115</v>
@@ -2224,7 +2364,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>120</v>
       </c>
@@ -2238,37 +2378,37 @@
         <v>10</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E9" si="1">D4/B4</f>
-        <v>0.4347826087</v>
+        <f t="shared" ref="E4:E9" si="0">D4/B4</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(Answers!D2:D24,"Full time student")</f>
         <v>21</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G9" si="2">F4/B4</f>
-        <v>0.9130434783</v>
+        <f t="shared" ref="G4:G9" si="1">F4/B4</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="H4" s="6">
         <f>COUNTIF(Answers!C2:C24,3)</f>
         <v>21</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I9" si="3">H4/B4</f>
-        <v>0.9130434783</v>
+        <f t="shared" ref="I4:I9" si="2">H4/B4</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="J4" s="6">
         <f>COUNTIF(Answers!E2:E24,"18 - 23")</f>
         <v>20</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K9" si="4">J4/B4</f>
-        <v>0.8695652174</v>
+        <f t="shared" ref="K4:K9" si="3">J4/B4</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>121</v>
       </c>
@@ -2277,15 +2417,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:C9" si="5">B5/B$4</f>
-        <v>0.6956521739</v>
+        <f t="shared" ref="C5:C9" si="4">B5/B$4</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="D5" s="6">
         <f>COUNTIFS(Answers!F2:F24,"Male",Answers!X2:X24,"Yes")+COUNTIFS(Answers!F2:F24,"Male",Answers!B2:B24,"Yes")+COUNTIFS(Answers!F2:F24,"Male",Answers!G2:G24,"No")</f>
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F5" s="6">
@@ -2293,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="H5" s="6">
@@ -2301,7 +2441,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="J5" s="6">
@@ -2309,13 +2449,13 @@
         <v>13</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8125</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>122</v>
       </c>
@@ -2324,15 +2464,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.1304347826</v>
+        <f t="shared" si="4"/>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D6" s="6">
         <f>COUNTIFS(Answers!F2:F24,"Male",Answers!B2:B24,"Yes")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
@@ -2340,29 +2480,29 @@
         <v>2</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.6666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6" s="9">
         <f>COUNTIFS(Answers!C2:C24,3,Answers!B2:B24,"Yes")</f>
         <v>3</v>
       </c>
       <c r="I6" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f>COUNTIFS(Answers!E2:E24,"18 - 23",Answers!B2:B24,"Yes")</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" s="9">
-        <f>COUNTIFS(Answers!E2:E24,"18 - 23",Answers!B2:B24,"Yes")</f>
-        <v>3</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
         <v>123</v>
       </c>
@@ -2371,15 +2511,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="5"/>
-        <v>0.1739130435</v>
+        <f t="shared" si="4"/>
+        <v>0.17391304347826086</v>
       </c>
       <c r="D7" s="6">
         <f>COUNTIFS(Answers!F2:F24,"Male",Answers!W2:W24,"Yes") + COUNTIFS(Answers!F2:F24,"Male",Answers!X2:X24,"Yes")</f>
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F7" s="6">
@@ -2387,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="H7" s="9">
@@ -2395,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="J7" s="9">
@@ -2403,13 +2543,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
         <v>124</v>
       </c>
@@ -2418,15 +2558,15 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="5"/>
-        <v>0.4347826087</v>
+        <f t="shared" si="4"/>
+        <v>0.43478260869565216</v>
       </c>
       <c r="D8" s="6">
         <f>COUNTIFS(Answers!F2:F24,"Male",Answers!G2:G24,"No")</f>
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F8" s="10">
@@ -2434,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="9">
@@ -2442,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="J8" s="9">
@@ -2450,13 +2590,13 @@
         <v>9</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
@@ -2465,23 +2605,23 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="5"/>
-        <v>0.3043478261</v>
+        <f t="shared" si="4"/>
+        <v>0.30434782608695654</v>
       </c>
       <c r="D9" s="6">
         <f>D4-D5</f>
         <v>4</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F9" s="6">
         <f>F4-F5</f>
         <v>7</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9" s="6">
@@ -2489,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J9" s="6">
@@ -2497,13 +2637,13 @@
         <v>7</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2518,7 +2658,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>126</v>
       </c>
@@ -2537,7 +2677,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="11"/>
       <c r="C12" s="5"/>
@@ -2552,7 +2692,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>115</v>
@@ -2587,7 +2727,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
         <v>130</v>
       </c>
@@ -2596,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C18" si="6">B14/$B$8</f>
+        <f t="shared" ref="C14:C18" si="5">B14/$B$8</f>
         <v>0.4</v>
       </c>
       <c r="D14" s="6">
@@ -2604,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" ref="E14:E18" si="7">D14/B14</f>
+        <f t="shared" ref="E14:E18" si="6">D14/B14</f>
         <v>1</v>
       </c>
       <c r="F14" s="6">
@@ -2612,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:G18" si="8">F14/B14</f>
+        <f t="shared" ref="G14:G18" si="7">F14/B14</f>
         <v>0.75</v>
       </c>
       <c r="H14" s="5"/>
@@ -2624,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ref="K14:K20" si="9">J14/$B$7</f>
+        <f t="shared" ref="K14:K20" si="8">J14/$B$7</f>
         <v>0.75</v>
       </c>
       <c r="L14" s="9">
@@ -2632,11 +2772,11 @@
         <v>1</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14:M20" si="10">L14/J14</f>
-        <v>0.3333333333</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" ref="M14:M20" si="9">L14/J14</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
         <v>132</v>
       </c>
@@ -2645,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="D15" s="6">
@@ -2653,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="F15" s="9">
@@ -2661,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="H15" s="5"/>
@@ -2673,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="L15" s="9">
@@ -2681,11 +2821,11 @@
         <v>1</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
         <v>134</v>
       </c>
@@ -2694,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="D16" s="9">
@@ -2702,16 +2842,16 @@
         <v>6</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="7"/>
-        <v>0.8571428571</v>
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F16" s="9">
         <f>COUNTIFS(Answers!O2:O24,"*Through an online platform*",Answers!O2:O24,"*,*")</f>
         <v>4</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="8"/>
-        <v>0.5714285714</v>
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="s">
@@ -2722,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="L16" s="9">
@@ -2730,36 +2870,36 @@
         <v>1</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="16">
         <f>COUNTIFS(Answers!O2:O24,"* *",Answers!O2:O24,"&lt;&gt;*Through an online platform*")</f>
         <v>3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="18">
+        <f>COUNTIFS(Answers!O2:O24,"* *",Answers!O2:O24,"&lt;&gt;*Through an online platform*",Answers!Q2:Q24,"*No*")</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="9">
-        <f>COUNTIFS(Answers!O2:O24,"* *",Answers!O2:O24,"&lt;&gt;*Through an online platform*",Answers!Q2:Q24,"*No*")</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="18">
         <f>COUNTIFS(Answers!O2:O24,"*,*",Answers!O2:O24,"&lt;&gt;*Through an online platform*")</f>
         <v>0</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="8"/>
+      <c r="G17" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="5"/>
@@ -2771,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="L17" s="9">
@@ -2779,38 +2919,32 @@
         <v>1</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="6">
-        <f>B8</f>
-        <v>10</v>
-      </c>
-      <c r="C18" s="8">
+    <row r="18" spans="1:13" ht="14.25">
+      <c r="A18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="20">
+        <f>COUNTIFS(Answers!M2:M24,"No",Answers!N2:N24,"No")</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="22">
+        <f>COUNTIFS(Answers!M2:M24,"No",Answers!N2:N24,"No",Answers!Q2:Q24,"*No*")</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D18" s="6">
-        <f>COUNTIF(Answers!Q2:Q24,"*No*")</f>
-        <v>9</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="F18" s="9">
-        <f>COUNTIF(Answers!O2:O24,"*,*")</f>
-        <v>4</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
-      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="I18" s="7" t="s">
         <v>139</v>
       </c>
@@ -2819,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="L18" s="9">
@@ -2827,11 +2961,38 @@
         <v>1</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="14.25">
+      <c r="A19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B8</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="14">
+        <f>B19/$B$8</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <f>COUNTIF(Answers!Q2:Q24,"*No*")</f>
+        <v>9</v>
+      </c>
+      <c r="E19" s="21">
+        <f>D19/B19</f>
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="24">
+        <f>COUNTIF(Answers!O2:O24,"*,*")</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="14">
+        <f>F19/B19</f>
+        <v>0.4</v>
+      </c>
       <c r="I19" s="7" t="s">
         <v>140</v>
       </c>
@@ -2840,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="L19" s="6">
@@ -2848,11 +3009,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="14.25">
       <c r="I20" s="7" t="s">
         <v>138</v>
       </c>
@@ -2861,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L20" s="9">
@@ -2869,11 +3030,11 @@
         <v>2</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>